--- a/Firebase/rensetkurser.xlsx
+++ b/Firebase/rensetkurser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkelrosenfeldtanderson/OneDrive - Danmarks Tekniske Universitet/DTU/Software projekt Android/DTU-kurser/Firebase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_6965C55C5376F91B61C5F20DE6113A48465C61D5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{81DD52F3-1507-1C45-A08B-008DA493E3FE}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_6965C55C5376F91B61C5F20DE6113A48465C61D5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E3CC5D5C-8560-D845-BB71-69F149B6EDDB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6771,7 +6771,241 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -6850,6 +7084,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A45B4BB-4333-BC48-A848-BA75D87A4744}" name="Tabel1" displayName="Tabel1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:G1048576" xr:uid="{32664F56-66C4-6A45-8BA3-5DF628B7C0C8}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{97651367-8687-9D45-978C-B1C028BB61E6}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{07E86EE2-0EF7-B845-AC58-2ED2FF4D475D}" name="Title" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D77A4314-16E8-1248-B943-5CBE79A9B63E}" name="Language" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E6E7A6EB-07F1-FE49-A69A-DFEEA4AAFF31}" name="ECTS" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4DCE9980-C90F-E444-94CC-DAE40A573FAE}" name="Year" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{31D98715-A1F3-D343-BAA7-C01776F3913C}" name="Placement" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D43586F9-02B5-114B-BA4B-5745F31CB99D}" name="Course Type" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7929,8 +8179,8 @@
   </sheetPr>
   <dimension ref="A1:IV3402"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="211" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="211" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7938,7 +8188,7 @@
     <col min="1" max="1" width="5.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="50.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="3" customWidth="1"/>
@@ -86162,5 +86412,8 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>